--- a/pcdf_regionais.xlsx
+++ b/pcdf_regionais.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\Doutorado\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\CREAS\creas_r\gith_transito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EB4D53-0F52-425D-A34E-06F2B9D66AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5BE5D3-B3C9-4094-AFE6-93F29AA2FA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <r>
       <rPr>
@@ -215,9 +215,6 @@
     <t>CRUZEIRO</t>
   </si>
   <si>
-    <t>ESTRUTURAL</t>
-  </si>
-  <si>
     <t>GAMA</t>
   </si>
   <si>
@@ -288,6 +285,12 @@
   </si>
   <si>
     <t>VARJAO</t>
+  </si>
+  <si>
+    <t>SCIA</t>
+  </si>
+  <si>
+    <t>ano</t>
   </si>
 </sst>
 </file>
@@ -732,81 +735,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E307DCD-E738-44A5-9535-FAA6442CCB9C}">
-  <dimension ref="B2:O44"/>
+  <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D4:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="5"/>
-    <col min="2" max="3" width="26.6640625" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.33203125" style="5"/>
+    <col min="2" max="4" width="26.6640625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>0</v>
+      <c r="D2" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9">
-        <v>3</v>
+      <c r="D3" s="3">
+        <v>2023</v>
       </c>
       <c r="E3" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="9">
         <v>4</v>
@@ -815,95 +821,101 @@
         <v>4</v>
       </c>
       <c r="J3" s="9">
+        <v>4</v>
+      </c>
+      <c r="K3" s="9">
         <v>10</v>
-      </c>
-      <c r="K3" s="9">
-        <v>7</v>
       </c>
       <c r="L3" s="9">
         <v>7</v>
       </c>
       <c r="M3" s="9">
+        <v>7</v>
+      </c>
+      <c r="N3" s="9">
         <v>4</v>
       </c>
-      <c r="N3" s="9">
-        <v>2</v>
-      </c>
       <c r="O3" s="9">
+        <v>2</v>
+      </c>
+      <c r="P3" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
+      <c r="D4" s="3">
+        <v>2023</v>
       </c>
       <c r="E4" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
       </c>
       <c r="J4" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="9">
         <v>0</v>
       </c>
       <c r="O4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9">
-        <v>3</v>
+      <c r="D5" s="3">
+        <v>2023</v>
       </c>
       <c r="E5" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="9">
         <v>3</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="9">
         <v>0</v>
       </c>
       <c r="J5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="9">
         <v>1</v>
@@ -912,168 +924,180 @@
         <v>1</v>
       </c>
       <c r="M5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="9">
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E6" s="9">
         <v>48</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="9">
         <v>54</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G6" s="9">
         <v>44</v>
-      </c>
-      <c r="G6" s="9">
-        <v>48</v>
       </c>
       <c r="H6" s="9">
         <v>48</v>
       </c>
       <c r="I6" s="9">
+        <v>48</v>
+      </c>
+      <c r="J6" s="9">
         <v>43</v>
       </c>
-      <c r="J6" s="9">
+      <c r="K6" s="9">
         <v>49</v>
       </c>
-      <c r="K6" s="9">
+      <c r="L6" s="9">
         <v>47</v>
-      </c>
-      <c r="L6" s="9">
-        <v>53</v>
       </c>
       <c r="M6" s="9">
         <v>53</v>
       </c>
       <c r="N6" s="9">
+        <v>53</v>
+      </c>
+      <c r="O6" s="9">
         <v>45</v>
       </c>
-      <c r="O6" s="9">
+      <c r="P6" s="9">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9">
-        <v>3</v>
+      <c r="D7" s="3">
+        <v>2023</v>
       </c>
       <c r="E7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="9">
         <v>0</v>
       </c>
       <c r="I7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="9">
         <v>2</v>
       </c>
       <c r="O7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E8" s="9">
         <v>11</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="9">
         <v>12</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>17</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <v>12</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="9">
         <v>16</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="9">
         <v>4</v>
       </c>
-      <c r="J8" s="9">
+      <c r="K8" s="9">
         <v>7</v>
       </c>
-      <c r="K8" s="9">
+      <c r="L8" s="9">
         <v>10</v>
       </c>
-      <c r="L8" s="9">
+      <c r="M8" s="9">
         <v>12</v>
       </c>
-      <c r="M8" s="9">
+      <c r="N8" s="9">
         <v>15</v>
       </c>
-      <c r="N8" s="9">
+      <c r="O8" s="9">
         <v>13</v>
       </c>
-      <c r="O8" s="9">
+      <c r="P8" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9">
-        <v>2</v>
+      <c r="D9" s="3">
+        <v>2023</v>
       </c>
       <c r="E9" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
         <v>5</v>
       </c>
-      <c r="G9" s="9">
-        <v>3</v>
-      </c>
       <c r="H9" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" s="9">
         <v>1</v>
@@ -1085,54 +1109,57 @@
         <v>1</v>
       </c>
       <c r="L9" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="9">
-        <v>1</v>
+      <c r="D10" s="3">
+        <v>2023</v>
       </c>
       <c r="E10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" s="9">
         <v>3</v>
       </c>
       <c r="M10" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="9">
         <v>0</v>
@@ -1140,148 +1167,160 @@
       <c r="O10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9">
-        <v>3</v>
+      <c r="D11" s="3">
+        <v>2023</v>
       </c>
       <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9">
         <v>12</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="9">
         <v>6</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="9">
         <v>4</v>
-      </c>
-      <c r="H11" s="9">
-        <v>6</v>
       </c>
       <c r="I11" s="9">
         <v>6</v>
       </c>
       <c r="J11" s="9">
+        <v>6</v>
+      </c>
+      <c r="K11" s="9">
         <v>9</v>
       </c>
-      <c r="K11" s="9">
+      <c r="L11" s="9">
         <v>11</v>
-      </c>
-      <c r="L11" s="9">
-        <v>9</v>
       </c>
       <c r="M11" s="9">
         <v>9</v>
       </c>
       <c r="N11" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O11" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E12" s="9">
         <v>10</v>
       </c>
-      <c r="E12" s="9">
+      <c r="F12" s="9">
         <v>11</v>
       </c>
-      <c r="F12" s="9">
+      <c r="G12" s="9">
         <v>9</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="9">
         <v>5</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="9">
         <v>10</v>
       </c>
-      <c r="I12" s="9">
+      <c r="J12" s="9">
         <v>9</v>
       </c>
-      <c r="J12" s="9">
+      <c r="K12" s="9">
         <v>5</v>
       </c>
-      <c r="K12" s="9">
+      <c r="L12" s="9">
         <v>9</v>
       </c>
-      <c r="L12" s="9">
+      <c r="M12" s="9">
         <v>10</v>
       </c>
-      <c r="M12" s="9">
+      <c r="N12" s="9">
         <v>11</v>
       </c>
-      <c r="N12" s="9">
+      <c r="O12" s="9">
         <v>15</v>
       </c>
-      <c r="O12" s="9">
+      <c r="P12" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="9">
-        <v>2</v>
+      <c r="D13" s="3">
+        <v>2023</v>
       </c>
       <c r="E13" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
       </c>
       <c r="I13" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>2023</v>
       </c>
       <c r="E14" s="9">
         <v>3</v>
@@ -1290,60 +1329,63 @@
         <v>3</v>
       </c>
       <c r="G14" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="9">
         <v>1</v>
       </c>
       <c r="K14" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14" s="9">
         <v>1</v>
       </c>
       <c r="N14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="9">
-        <v>0</v>
+      <c r="D15" s="3">
+        <v>2023</v>
       </c>
       <c r="E15" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="9">
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="9">
         <v>1</v>
       </c>
       <c r="J15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
@@ -1352,118 +1394,127 @@
         <v>0</v>
       </c>
       <c r="M15" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E16" s="9">
         <v>4</v>
       </c>
-      <c r="E16" s="9">
-        <v>3</v>
-      </c>
       <c r="F16" s="9">
+        <v>3</v>
+      </c>
+      <c r="G16" s="9">
         <v>5</v>
       </c>
-      <c r="G16" s="9">
+      <c r="H16" s="9">
         <v>10</v>
       </c>
-      <c r="H16" s="9">
+      <c r="I16" s="9">
         <v>6</v>
       </c>
-      <c r="I16" s="9">
+      <c r="J16" s="9">
         <v>5</v>
       </c>
-      <c r="J16" s="9">
-        <v>3</v>
-      </c>
       <c r="K16" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E17" s="9">
         <v>4</v>
       </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
       <c r="F17" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="9">
+        <v>2</v>
+      </c>
+      <c r="J17" s="9">
         <v>4</v>
       </c>
-      <c r="J17" s="9">
-        <v>3</v>
-      </c>
       <c r="K17" s="9">
+        <v>3</v>
+      </c>
+      <c r="L17" s="9">
         <v>6</v>
       </c>
-      <c r="L17" s="9">
-        <v>3</v>
-      </c>
       <c r="M17" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" s="9">
         <v>4</v>
       </c>
       <c r="O17" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P17" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="9">
-        <v>0</v>
+      <c r="D18" s="3">
+        <v>2023</v>
       </c>
       <c r="E18" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -1472,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="9">
         <v>0</v>
@@ -1492,37 +1543,40 @@
       <c r="O18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="9">
-        <v>3</v>
+      <c r="D19" s="3">
+        <v>2023</v>
       </c>
       <c r="E19" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="9">
+        <v>3</v>
+      </c>
+      <c r="H19" s="9">
         <v>4</v>
       </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
       <c r="I19" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="9">
         <v>2</v>
@@ -1536,104 +1590,113 @@
       <c r="O19" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E20" s="9">
         <v>6</v>
       </c>
-      <c r="E20" s="9">
+      <c r="F20" s="9">
         <v>13</v>
       </c>
-      <c r="F20" s="9">
+      <c r="G20" s="9">
         <v>4</v>
       </c>
-      <c r="G20" s="9">
-        <v>3</v>
-      </c>
       <c r="H20" s="9">
+        <v>3</v>
+      </c>
+      <c r="I20" s="9">
         <v>13</v>
       </c>
-      <c r="I20" s="9">
+      <c r="J20" s="9">
         <v>9</v>
       </c>
-      <c r="J20" s="9">
+      <c r="K20" s="9">
         <v>5</v>
       </c>
-      <c r="K20" s="9">
+      <c r="L20" s="9">
         <v>8</v>
       </c>
-      <c r="L20" s="9">
+      <c r="M20" s="9">
         <v>6</v>
       </c>
-      <c r="M20" s="9">
-        <v>3</v>
-      </c>
       <c r="N20" s="9">
         <v>3</v>
       </c>
       <c r="O20" s="9">
+        <v>3</v>
+      </c>
+      <c r="P20" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="9">
-        <v>1</v>
+      <c r="D21" s="3">
+        <v>2023</v>
       </c>
       <c r="E21" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="9">
         <v>2</v>
       </c>
       <c r="I21" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O21" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="9">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>2023</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
@@ -1642,54 +1705,57 @@
         <v>0</v>
       </c>
       <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
         <v>5</v>
       </c>
-      <c r="H22" s="9">
-        <v>1</v>
-      </c>
       <c r="I22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="9">
         <v>1</v>
       </c>
       <c r="O22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="9">
-        <v>0</v>
+      <c r="D23" s="3">
+        <v>2023</v>
       </c>
       <c r="E23" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F23" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="9">
         <v>0</v>
@@ -1698,40 +1764,43 @@
         <v>0</v>
       </c>
       <c r="K23" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="9">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>2023</v>
       </c>
       <c r="E24" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
         <v>6</v>
       </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
       <c r="H24" s="9">
         <v>1</v>
       </c>
@@ -1739,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24" s="9">
         <v>3</v>
@@ -1751,209 +1820,224 @@
         <v>3</v>
       </c>
       <c r="N24" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O24" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E25" s="9">
         <v>11</v>
       </c>
-      <c r="E25" s="9">
-        <v>3</v>
-      </c>
       <c r="F25" s="9">
         <v>3</v>
       </c>
       <c r="G25" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I25" s="9">
         <v>5</v>
       </c>
       <c r="J25" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K25" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" s="9">
         <v>4</v>
       </c>
       <c r="O25" s="9">
+        <v>4</v>
+      </c>
+      <c r="P25" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="9">
-        <v>2</v>
+      <c r="D26" s="3">
+        <v>2023</v>
       </c>
       <c r="E26" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="9">
         <v>1</v>
       </c>
       <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9">
         <v>4</v>
       </c>
-      <c r="H26" s="9">
+      <c r="I26" s="9">
         <v>5</v>
       </c>
-      <c r="I26" s="9">
-        <v>3</v>
-      </c>
       <c r="J26" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K26" s="9">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9">
         <v>5</v>
       </c>
-      <c r="L26" s="9">
-        <v>1</v>
-      </c>
       <c r="M26" s="9">
+        <v>1</v>
+      </c>
+      <c r="N26" s="9">
         <v>4</v>
       </c>
-      <c r="N26" s="9">
+      <c r="O26" s="9">
         <v>10</v>
       </c>
-      <c r="O26" s="9">
+      <c r="P26" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="9">
-        <v>2</v>
+      <c r="D27" s="3">
+        <v>2023</v>
       </c>
       <c r="E27" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="9">
         <v>0</v>
       </c>
       <c r="G27" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O27" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="P27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="9">
-        <v>2</v>
+      <c r="D28" s="3">
+        <v>2023</v>
       </c>
       <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9">
         <v>4</v>
       </c>
-      <c r="F28" s="9">
+      <c r="G28" s="9">
         <v>5</v>
       </c>
-      <c r="G28" s="9">
+      <c r="H28" s="9">
         <v>4</v>
       </c>
-      <c r="H28" s="9">
-        <v>1</v>
-      </c>
       <c r="I28" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
         <v>5</v>
       </c>
-      <c r="L28" s="9">
-        <v>3</v>
-      </c>
       <c r="M28" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28" s="9">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9">
         <v>5</v>
       </c>
-      <c r="O28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="5">
-        <v>0</v>
+      <c r="D29" s="3">
+        <v>2023</v>
       </c>
       <c r="E29" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="5">
         <v>0</v>
@@ -1962,45 +2046,48 @@
         <v>0</v>
       </c>
       <c r="K29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="9">
-        <v>1</v>
+      <c r="D30" s="3">
+        <v>2023</v>
       </c>
       <c r="E30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" s="9">
         <v>0</v>
@@ -2009,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="9">
         <v>0</v>
@@ -2020,25 +2107,28 @@
       <c r="O30" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="5">
-        <v>0</v>
+      <c r="D31" s="3">
+        <v>2023</v>
       </c>
       <c r="E31" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="5">
         <v>1</v>
@@ -2050,74 +2140,80 @@
         <v>1</v>
       </c>
       <c r="K31" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31" s="5">
         <v>0</v>
       </c>
       <c r="N31" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="P31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E32" s="9">
         <v>19</v>
       </c>
-      <c r="E32" s="9">
+      <c r="F32" s="9">
         <v>16</v>
       </c>
-      <c r="F32" s="9">
+      <c r="G32" s="9">
         <v>8</v>
       </c>
-      <c r="G32" s="9">
+      <c r="H32" s="9">
         <v>14</v>
       </c>
-      <c r="H32" s="9">
+      <c r="I32" s="9">
         <v>18</v>
       </c>
-      <c r="I32" s="9">
+      <c r="J32" s="9">
         <v>19</v>
       </c>
-      <c r="J32" s="9">
+      <c r="K32" s="9">
         <v>17</v>
       </c>
-      <c r="K32" s="9">
+      <c r="L32" s="9">
         <v>13</v>
       </c>
-      <c r="L32" s="9">
+      <c r="M32" s="9">
         <v>14</v>
       </c>
-      <c r="M32" s="9">
+      <c r="N32" s="9">
         <v>13</v>
-      </c>
-      <c r="N32" s="9">
-        <v>15</v>
       </c>
       <c r="O32" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="9">
-        <v>1</v>
+      <c r="D33" s="3">
+        <v>2023</v>
       </c>
       <c r="E33" s="9">
         <v>1</v>
@@ -2138,30 +2234,33 @@
         <v>1</v>
       </c>
       <c r="K33" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33" s="9">
         <v>1</v>
       </c>
       <c r="N33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="5">
-        <v>0</v>
+      <c r="D34" s="3">
+        <v>2023</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -2188,34 +2287,42 @@
         <v>0</v>
       </c>
       <c r="M34" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N34" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="4"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="4"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="4"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
